--- a/examplePoj/excel/cfg_hero_recruit.xlsx
+++ b/examplePoj/excel/cfg_hero_recruit.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11910"/>
+    <workbookView windowHeight="17800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="output_cfg_hero_recruit" sheetId="4" r:id="rId1"/>
     <sheet name="output_cfg_hero_recruit_pool" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,12 +180,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -183,6 +196,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -191,7 +306,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,136 +345,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -348,187 +361,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,39 +552,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,10 +572,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -605,7 +583,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,157 +632,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -817,52 +830,52 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1136,13 +1149,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="36.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
@@ -1214,37 +1227,25 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>500</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1255,41 +1256,61 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>180</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1303,13 +1324,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
@@ -1380,35 +1401,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2">
-        <v>500</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>500</v>
@@ -1425,10 +1426,10 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>500</v>
@@ -1445,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>500</v>
@@ -1465,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>500</v>
@@ -1485,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>500</v>
@@ -1505,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>500</v>
@@ -1525,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>500</v>
@@ -1545,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>500</v>
@@ -1562,22 +1563,22 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1585,10 +1586,10 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>180</v>
@@ -1597,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1605,10 +1606,10 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>180</v>
@@ -1617,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1625,10 +1626,10 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2">
         <v>180</v>
@@ -1645,10 +1646,10 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2">
         <v>180</v>
@@ -1657,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1665,10 +1666,10 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2">
         <v>180</v>
@@ -1677,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1685,10 +1686,10 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2">
         <v>180</v>
@@ -1705,10 +1706,10 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
         <v>180</v>
@@ -1717,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1725,10 +1726,10 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2">
         <v>180</v>
@@ -1737,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1745,10 +1746,10 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2">
         <v>180</v>
@@ -1765,10 +1766,10 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2">
         <v>180</v>
@@ -1777,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1785,10 +1786,10 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2">
         <v>180</v>
@@ -1797,18 +1798,18 @@
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2">
         <v>180</v>
@@ -1817,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1825,10 +1826,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2">
         <v>180</v>
@@ -1845,10 +1846,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2">
         <v>180</v>
@@ -1857,6 +1858,26 @@
         <v>1</v>
       </c>
       <c r="F27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2">
+        <v>180</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
         <v>0</v>
       </c>
     </row>
